--- a/TestBudget.xlsx
+++ b/TestBudget.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6200" windowHeight="7520"/>
   </bookViews>
   <sheets>
-    <sheet name="Yearly" sheetId="1" r:id="rId1"/>
-    <sheet name="Monthly" sheetId="2" r:id="rId2"/>
+    <sheet name="Monthly" sheetId="1" r:id="rId1"/>
+    <sheet name="Yearly" sheetId="2" r:id="rId2"/>
     <sheet name="Data Set" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -21,179 +21,185 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="18" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="160">
+  <si>
+    <t>Monthly Budget</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>(EO)</t>
+  </si>
+  <si>
+    <t>Eating Out</t>
+  </si>
+  <si>
+    <t>(ENT)</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total (Besides R/P)</t>
+  </si>
+  <si>
+    <t>Spending Money</t>
+  </si>
+  <si>
+    <t>Besides phone and rent</t>
+  </si>
+  <si>
+    <t>Remaining Avg per day</t>
+  </si>
+  <si>
+    <t>Monthly Spending</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount </t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>Discover Check</t>
+  </si>
+  <si>
+    <t>Red Card Check</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Avearge(Per Visit)</t>
+  </si>
+  <si>
+    <t>Avearge</t>
+  </si>
+  <si>
+    <t>Janurary</t>
+  </si>
+  <si>
+    <t>Feburary</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April </t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Average(Per Month)</t>
+  </si>
   <si>
     <t>Yearly</t>
   </si>
   <si>
-    <t>Janurary</t>
-  </si>
-  <si>
-    <t>Feburary</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
     <t>September - December</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Averages</t>
   </si>
   <si>
-    <t>Groceries</t>
-  </si>
-  <si>
     <t>Eating Out (EO)</t>
   </si>
   <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
     <t>Food (Groceries)</t>
   </si>
   <si>
-    <t>Gift</t>
-  </si>
-  <si>
     <t>Eating  Out (EO)</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>RED Card</t>
   </si>
   <si>
     <t>April</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
     <t>Total Spent</t>
   </si>
   <si>
     <t>Average</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Total (Besides R/P)</t>
-  </si>
-  <si>
     <t>NET</t>
   </si>
   <si>
     <t xml:space="preserve">March </t>
   </si>
   <si>
-    <t xml:space="preserve">April </t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
     <t>Total  NET</t>
   </si>
   <si>
-    <t>Monthly Budget</t>
-  </si>
-  <si>
-    <t>(EO)</t>
-  </si>
-  <si>
-    <t>Eating  Out</t>
-  </si>
-  <si>
-    <t>(ENT)</t>
-  </si>
-  <si>
-    <t>Spending Money</t>
-  </si>
-  <si>
-    <t>Besides phone and rent</t>
-  </si>
-  <si>
-    <t>Remaining Avg per day</t>
-  </si>
-  <si>
-    <t>Monthly Spending</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount </t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Discover Check</t>
-  </si>
-  <si>
-    <t>Red Card Check</t>
-  </si>
-  <si>
-    <t>Avearge(Per Visit)</t>
-  </si>
-  <si>
-    <t>Avearge</t>
-  </si>
-  <si>
-    <t>Average(Per Month)</t>
-  </si>
-  <si>
     <t>Data Set</t>
   </si>
   <si>
@@ -458,9 +464,6 @@
     <t>TP</t>
   </si>
   <si>
-    <t>Random Groceries</t>
-  </si>
-  <si>
     <t>Shell</t>
   </si>
   <si>
@@ -477,6 +480,33 @@
   </si>
   <si>
     <t>Etsy</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>sdkfm</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>TET</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>sdkfl</t>
+  </si>
+  <si>
+    <t>dskfjl</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
 </sst>
 </file>
@@ -770,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -783,9 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -804,24 +832,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -857,6 +890,498 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Finances</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Monthly!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="94000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="100000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="78000"/>
+                      <a:satMod val="120000"/>
+                      <a:lumMod val="99000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="94000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="100000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="78000"/>
+                      <a:satMod val="120000"/>
+                      <a:lumMod val="99000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="94000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="100000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="78000"/>
+                      <a:satMod val="120000"/>
+                      <a:lumMod val="99000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:tint val="94000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="100000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="78000"/>
+                      <a:satMod val="120000"/>
+                      <a:lumMod val="99000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:tint val="94000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="100000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="78000"/>
+                      <a:satMod val="120000"/>
+                      <a:lumMod val="99000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:tint val="94000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="100000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:shade val="78000"/>
+                      <a:satMod val="120000"/>
+                      <a:lumMod val="99000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:tint val="94000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="100000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="78000"/>
+                      <a:satMod val="120000"/>
+                      <a:lumMod val="99000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="94000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="100000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="78000"/>
+                      <a:satMod val="120000"/>
+                      <a:lumMod val="99000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Monthly!$B$3:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eating Out</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gas</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gift</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Monthly!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1295,28 +1820,28 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2700</c:v>
+                  <c:v>3375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>402.81999999999988</c:v>
+                  <c:v>545.01999999999987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115.42999999999998</c:v>
+                  <c:v>211.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17.630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.679999999999993</c:v>
+                  <c:v>10116.879999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>254.19</c:v>
+                  <c:v>277.19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>197.58</c:v>
+                  <c:v>222.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,7 +1871,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1620,22 +2145,22 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.70499999999997</c:v>
+                  <c:v>109.00399999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.857499999999995</c:v>
+                  <c:v>42.287999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.5260000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.169999999999998</c:v>
+                  <c:v>2023.3759999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.547499999999999</c:v>
+                  <c:v>55.438000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.395000000000003</c:v>
+                  <c:v>44.516000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,499 +2233,42 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Finances</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Monthly!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="94000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="100000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="78000"/>
-                      <a:satMod val="120000"/>
-                      <a:lumMod val="99000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="94000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="100000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="78000"/>
-                      <a:satMod val="120000"/>
-                      <a:lumMod val="99000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:tint val="94000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:shade val="100000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:shade val="78000"/>
-                      <a:satMod val="120000"/>
-                      <a:lumMod val="99000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:tint val="94000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="100000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="78000"/>
-                      <a:satMod val="120000"/>
-                      <a:lumMod val="99000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:tint val="94000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="100000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:shade val="78000"/>
-                      <a:satMod val="120000"/>
-                      <a:lumMod val="99000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:tint val="94000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:shade val="100000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:shade val="78000"/>
-                      <a:satMod val="120000"/>
-                      <a:lumMod val="99000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="94000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="100000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="78000"/>
-                      <a:satMod val="120000"/>
-                      <a:lumMod val="99000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="94000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="100000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="78000"/>
-                      <a:satMod val="120000"/>
-                      <a:lumMod val="99000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1050" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Monthly!$B$3:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Rent</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Phone</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Groceries</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Eating  Out</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Entertainment</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gas</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Gift</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Monthly!$C$3:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146049</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2257,41 +2325,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>146049</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2442,7 +2475,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N4:O9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -2765,27 +2798,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W86"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:O26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="10" customWidth="1"/>
-    <col min="7" max="8" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.26953125" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" style="34" customWidth="1"/>
+    <col min="15" max="15" width="8.26953125" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.26953125" style="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.54296875" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.5">
@@ -2793,1764 +2828,661 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="23" t="s">
+    <row r="2" spans="1:23" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="37">
+        <v>675</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="34">
-        <v>675</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="34">
-        <v>675</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="34">
-        <v>675</v>
-      </c>
-      <c r="S5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="34">
-        <v>50</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="34">
-        <v>50</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="34">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="34">
-        <v>282.06999999999988</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="34">
-        <v>40.25</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="34">
-        <v>40.25</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s">
-        <v>5</v>
-      </c>
-      <c r="V7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="34">
-        <v>92.359999999999985</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="34">
-        <v>7.69</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="34">
-        <v>7.69</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="35">
-        <f t="shared" ref="M8:M15" si="0">SUM(C5,F5,I5,C17,F17,I17,C29,F29,I29,C41,F41,I41)</f>
-        <v>2700</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="35">
-        <f t="shared" ref="P8:P15" si="1">AVERAGE(C5,F5,I5,C17,F17,I17,C29,F29,I29,C41,F41,I41)</f>
-        <v>675</v>
-      </c>
-      <c r="S8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8">
-        <v>2700</v>
-      </c>
-      <c r="V8" t="s">
-        <v>6</v>
-      </c>
-      <c r="W8">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="34">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="34">
-        <v>0</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="34">
-        <v>0</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="35">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="35">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="S9" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9">
-        <v>200</v>
-      </c>
-      <c r="V9" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="34">
-        <v>49.88</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="34">
-        <v>15.6</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="34">
-        <v>15.6</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="35">
-        <f t="shared" si="0"/>
-        <v>402.81999999999988</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="35">
-        <f t="shared" si="1"/>
-        <v>100.70499999999997</v>
-      </c>
-      <c r="S10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T10">
-        <v>1132.54</v>
-      </c>
-      <c r="V10" t="s">
-        <v>15</v>
-      </c>
-      <c r="W10">
-        <v>283.13499999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="34">
-        <v>143.19</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="34">
-        <v>37</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="34">
-        <v>37</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="35">
-        <f t="shared" si="0"/>
-        <v>115.42999999999998</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="35">
-        <f t="shared" si="1"/>
-        <v>28.857499999999995</v>
-      </c>
-      <c r="S11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11">
-        <v>425.75</v>
-      </c>
-      <c r="V11" t="s">
-        <v>17</v>
-      </c>
-      <c r="W11">
-        <v>106.4375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B12" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="34">
-        <v>197.58</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="34">
-        <v>0</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12">
-        <v>112.38</v>
-      </c>
-      <c r="V12" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12">
-        <v>28.094999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="L13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="35">
-        <f t="shared" si="0"/>
-        <v>96.679999999999993</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="35">
-        <f t="shared" si="1"/>
-        <v>24.169999999999998</v>
-      </c>
-      <c r="S13" t="s">
-        <v>19</v>
-      </c>
-      <c r="T13">
-        <v>45.12</v>
-      </c>
-      <c r="V13" t="s">
-        <v>19</v>
-      </c>
-      <c r="W13">
-        <v>11.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="L14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="35">
-        <f t="shared" si="0"/>
-        <v>254.19</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="35">
-        <f t="shared" si="1"/>
-        <v>63.547499999999999</v>
-      </c>
-      <c r="S14" t="s">
-        <v>14</v>
-      </c>
-      <c r="T14">
-        <v>141.86000000000001</v>
-      </c>
-      <c r="V14" t="s">
-        <v>14</v>
-      </c>
-      <c r="W14">
-        <v>35.465000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="36">
-        <f t="shared" si="0"/>
-        <v>197.58</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="36">
-        <f t="shared" si="1"/>
-        <v>49.395000000000003</v>
-      </c>
-      <c r="S15" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15">
-        <v>210.89</v>
-      </c>
-      <c r="V15" t="s">
-        <v>18</v>
-      </c>
-      <c r="W15">
-        <v>52.722499999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B16" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="34">
-        <v>675</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="H17" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="37">
-        <f>SUM(M8:M15)</f>
-        <v>3966.6999999999994</v>
-      </c>
-      <c r="O17" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="38">
-        <f>AVERAGE(M23:M34)</f>
-        <v>1207.9124999999999</v>
-      </c>
-      <c r="S17" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17">
-        <v>4968.54</v>
-      </c>
-      <c r="V17" t="s">
-        <v>24</v>
-      </c>
-      <c r="W17">
-        <v>993.70799999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="34">
-        <v>50</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="H18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="P18" s="38">
-        <f>SUM(P8:P15)</f>
-        <v>991.67499999999984</v>
-      </c>
-      <c r="W18">
-        <v>1242.135</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="34">
-        <v>40.25</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="H19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B20" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="34">
-        <v>7.69</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="H20" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="34">
-        <v>0</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="H21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B22" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="34">
-        <v>15.6</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="H22" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="34"/>
-      <c r="L22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" t="s">
-        <v>25</v>
-      </c>
-      <c r="T22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" t="s">
-        <v>26</v>
-      </c>
-      <c r="V22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="34">
-        <v>37</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="H23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="L23" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="39">
-        <v>1490.08</v>
-      </c>
-      <c r="N23" s="39">
-        <v>765.07999999999993</v>
-      </c>
-      <c r="O23" s="40">
-        <v>-365.07999999999993</v>
-      </c>
-      <c r="S23" t="s">
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B24" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="34">
-        <v>0</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="H24" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="L24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="38">
-        <v>1381.85</v>
-      </c>
-      <c r="N24" s="37">
-        <v>656.85</v>
-      </c>
-      <c r="O24" s="35">
-        <v>-231.85</v>
-      </c>
-      <c r="S24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="L25" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="38">
-        <v>1134.18</v>
-      </c>
-      <c r="N25" s="37">
-        <v>409.81</v>
-      </c>
-      <c r="O25" s="35">
-        <v>15.81999999999999</v>
-      </c>
-      <c r="S25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="L26" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="38">
-        <v>825.54000000000008</v>
-      </c>
-      <c r="N26" s="37">
-        <v>100.54</v>
-      </c>
-      <c r="O26" s="35">
-        <v>324.45999999999998</v>
-      </c>
-      <c r="S26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="35"/>
-      <c r="S27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B28" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="35"/>
-      <c r="S28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B29" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="E29" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="H29" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="34"/>
-      <c r="L29" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="35"/>
-      <c r="S29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="E30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="H30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="L30" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="35"/>
-      <c r="S30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="E31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="H31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="L31" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="35"/>
-      <c r="S31" t="s">
-        <v>32</v>
-      </c>
-      <c r="T31">
-        <v>1205.8900000000001</v>
-      </c>
-      <c r="U31">
-        <v>480.89</v>
-      </c>
-      <c r="V31">
-        <v>-5.89</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B32" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="E32" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="H32" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="34"/>
-      <c r="L32" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="35"/>
-      <c r="S32" t="s">
-        <v>33</v>
-      </c>
-      <c r="T32">
-        <v>1293.23</v>
-      </c>
-      <c r="U32">
-        <v>568.23</v>
-      </c>
-      <c r="V32">
-        <v>-93.230000000000018</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="E33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="H33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="34"/>
-      <c r="L33" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="35"/>
-      <c r="S33" t="s">
-        <v>34</v>
-      </c>
-      <c r="T33">
-        <v>1183.3499999999999</v>
-      </c>
-      <c r="U33">
-        <v>458.35</v>
-      </c>
-      <c r="V33">
-        <v>16.650000000000031</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B34" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="E34" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="H34" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="34"/>
-      <c r="L34" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="36"/>
-      <c r="S34" t="s">
-        <v>35</v>
-      </c>
-      <c r="T34">
-        <v>1286.07</v>
-      </c>
-      <c r="U34">
-        <v>561.07000000000005</v>
-      </c>
-      <c r="V34">
-        <v>-86.07000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="E35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="H35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="34"/>
-      <c r="N35" t="s">
-        <v>36</v>
-      </c>
-      <c r="O35" s="38">
-        <f>SUM(O23:O34)</f>
-        <v>-256.65000000000003</v>
-      </c>
-      <c r="U35" t="s">
-        <v>36</v>
-      </c>
-      <c r="V35">
-        <v>-168.54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B36" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="E36" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="H36" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="34"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="C37" s="37"/>
-    </row>
-    <row r="39" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B40" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B41" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="34"/>
-      <c r="E41" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="34"/>
-      <c r="H41" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="34"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="E42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="H42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="34"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B43" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="E43" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="34"/>
-      <c r="H43" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="34"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B44" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="34"/>
-      <c r="E44" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="H44" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="34"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="34"/>
-      <c r="E45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="H45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="34"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B46" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="E46" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="34"/>
-      <c r="H46" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="34"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B47" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="34"/>
-      <c r="E47" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="34"/>
-      <c r="H47" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="34"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B48" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="E48" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="H48" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="34"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C49" s="37"/>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H79" s="29"/>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H80" s="29"/>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H81" s="29"/>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H82" s="29"/>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H83" s="29"/>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H84" s="29"/>
-    </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H85" s="29"/>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H86" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="8.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.54296875" style="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="42">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="42">
+      <c r="C5" s="37">
         <f>SUMIF(E25:E55,"Groceries",D25:D55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="42">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="37">
         <f>SUMIF(E25:E55,"EO",D25:D55)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="42">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="37">
         <f>SUMIF(E25:E55,"ENT",D25:D55)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="42">
+      <c r="B8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="37">
         <f>SUMIF(E25:E55,"Gas",D25:D55)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="42">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="37">
         <f>SUMIF(E25:E55,"Gift",D25:D55)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="42">
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="37">
         <f>SUMIF(E25:E55,"Other",D25:D55)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="D11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
+      <c r="B11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="29">
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="33">
         <f>SUM(C3:C10)</f>
-        <v>725</v>
-      </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="C13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
+        <v>727</v>
+      </c>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="29">
+        <v>14</v>
+      </c>
+      <c r="C14" s="33">
         <f>SUM(C5:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1200</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="30">
+        <v>15</v>
+      </c>
+      <c r="C16" s="27">
         <f>A18 - (SUM(C5:C10))</f>
-        <v>425</v>
-      </c>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
+        <v>423</v>
+      </c>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
+        <v>16</v>
+      </c>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>425</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
+        <v>17</v>
+      </c>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="D19" s="29">
+      <c r="D19" s="33">
         <f ca="1">C16/_xlfn.DAYS(31,DAY(TODAY()))</f>
-        <v>15.178571428571429</v>
-      </c>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
+        <v>24.882352941176471</v>
+      </c>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+    </row>
+    <row r="24" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" s="38">
+        <v>43965</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="39">
         <v>2</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-    </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A25" s="43"/>
-      <c r="D25" s="38"/>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
       <c r="G25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="37">
+        <v>27</v>
+      </c>
+      <c r="H25" s="40">
         <f>SUMIF(C25:C55, "&lt;&gt;"&amp;"Target",D25:D55)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26" s="43"/>
-      <c r="D26" s="38"/>
+      <c r="A26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="G26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="37">
+        <v>28</v>
+      </c>
+      <c r="H26" s="40">
         <f>SUMIF(C25:C55, "Target", D25:D55)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27" s="43"/>
-      <c r="D27" s="38"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
+      <c r="A27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="D28" s="38"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
+      <c r="A28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A29" s="43"/>
-      <c r="D29" s="38"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
+      <c r="A29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
     </row>
     <row r="30" spans="1:23" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="43"/>
-      <c r="D30" s="38"/>
-      <c r="I30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
-      <c r="M30" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N30" s="16"/>
-      <c r="O30" s="17"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
+      <c r="A30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="I30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="M30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I31" s="18" t="s">
-        <v>25</v>
+      <c r="A31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="I31" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="N31" t="s">
-        <v>9</v>
-      </c>
-      <c r="O31" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
+        <v>13</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="I32" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="37">
+      <c r="A32" s="41"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="12"/>
+      <c r="I32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="40">
         <v>282.06999999999988</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="43">
         <v>47.01</v>
       </c>
-      <c r="M32" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N32" s="37">
+      <c r="M32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="40">
         <v>49.88</v>
       </c>
-      <c r="O32" s="35">
+      <c r="O32" s="43">
         <v>16.63</v>
       </c>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I33" s="18" t="s">
+      <c r="A33" s="41"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="12"/>
+      <c r="I33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="40">
+        <v>219.93</v>
+      </c>
+      <c r="K33" s="43">
+        <v>43.985999999999997</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="40">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="O33" s="43">
+        <v>18.739999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="41"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="12"/>
+      <c r="I34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="40">
+        <v>193.68</v>
+      </c>
+      <c r="K34" s="43">
+        <v>48.419999999999987</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="40">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="O34" s="43">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="41"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="12"/>
+      <c r="I35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="40">
+        <v>27.02</v>
+      </c>
+      <c r="K35" s="40">
+        <v>27.02</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="40">
+        <v>15.6</v>
+      </c>
+      <c r="O35" s="43">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="41"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="12"/>
+      <c r="I36" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36">
         <v>2</v>
       </c>
-      <c r="J33" s="37">
-        <v>219.93</v>
-      </c>
-      <c r="K33" s="35">
-        <v>43.985999999999997</v>
-      </c>
-      <c r="M33" s="18" t="s">
+      <c r="K36">
         <v>2</v>
       </c>
-      <c r="N33" s="37">
-        <v>37.479999999999997</v>
-      </c>
-      <c r="O33" s="35">
-        <v>18.739999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I34" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="37">
-        <v>193.68</v>
-      </c>
-      <c r="K34" s="35">
-        <v>48.42</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="N34" s="37">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="O34" s="35">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I35" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="37">
-        <v>40.25</v>
-      </c>
-      <c r="K35" s="35">
-        <v>20.125</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" s="37">
-        <v>15.6</v>
-      </c>
-      <c r="O35" s="35">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I36" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="37">
+      <c r="M36" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36">
+        <v>10003</v>
+      </c>
+      <c r="O36">
+        <v>5001.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="12"/>
+      <c r="I37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37">
         <f>SUMIF(E25:E55,"Groceries",D25:D55)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="35" t="e">
-        <f>AVERAGEIF(E25:E55, "Groceries", D25:D55)</f>
+      <c r="K37" t="e">
+        <f>AVERAGEIF(E25:E55,"Groceries",D25:D55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="37">
-        <f>SUMIF(E25:E55,"Gas",D25:D55)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="35" t="e">
-        <f>AVERAGEIF(E25:E55, "Gas", D25:D55)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D37" s="38"/>
-      <c r="E37" s="14"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="35"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="35"/>
+      <c r="M37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <f>SUMIF(E24:E54,"Gas",D24:D54)</f>
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <f>AVERAGEIF(E24:E54, "Gas", D24:D54)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D38" s="38"/>
-      <c r="E38" s="14"/>
-      <c r="I38" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="35"/>
-      <c r="M38" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N38" s="37"/>
-      <c r="O38" s="35"/>
+      <c r="A38" s="1"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="12"/>
+      <c r="I38" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="43"/>
+      <c r="M38" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N38" s="40"/>
+      <c r="O38" s="43"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D39" s="38"/>
-      <c r="E39" s="14"/>
-      <c r="I39" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J39" s="41">
-        <f>AVERAGE(J32:J36)</f>
-        <v>147.18599999999998</v>
-      </c>
-      <c r="K39" s="36"/>
-      <c r="M39" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N39" s="41">
-        <f>AVERAGE(N32:N36)</f>
-        <v>27.151999999999997</v>
-      </c>
-      <c r="O39" s="36"/>
+      <c r="A39" s="1"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="12"/>
+      <c r="I39" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="40"/>
+      <c r="K39" s="43"/>
+      <c r="M39" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" s="40"/>
+      <c r="O39" s="43"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D40" s="38"/>
-      <c r="E40" s="14"/>
+      <c r="A40" s="1"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="12"/>
+      <c r="I40" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="43"/>
+      <c r="M40" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="43"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D41" s="38"/>
-      <c r="E41" s="14"/>
+      <c r="A41" s="1"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="12"/>
+      <c r="I41" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="43"/>
+      <c r="M41" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" s="43"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D42" s="38"/>
-      <c r="E42" s="14"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
+      <c r="A42" s="1"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="12"/>
+      <c r="I42" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="43"/>
+      <c r="M42" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="40"/>
+      <c r="O42" s="43"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D43" s="37"/>
-      <c r="E43" s="14"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="12"/>
+      <c r="I43" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="35"/>
+      <c r="K43" s="44"/>
+      <c r="M43" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="36"/>
+      <c r="O43" s="44"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D44" s="37"/>
-      <c r="E44" s="14"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="12"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D45" s="37"/>
-      <c r="E45" s="14"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="12"/>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="33">
+        <f>SUM(J32:J43)</f>
+        <v>724.69999999999982</v>
+      </c>
+      <c r="M45" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="33">
+        <f>SUM(N32:N43)</f>
+        <v>10140.76</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="31"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="14"/>
+      <c r="A46" s="28"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="12"/>
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" s="33">
+        <f>AVERAGE(J32:J43)</f>
+        <v>120.7833333333333</v>
+      </c>
+      <c r="M46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" s="33">
+        <f>AVERAGE(N32:N43)</f>
+        <v>1690.1266666666668</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="31"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="28"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="31"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="14"/>
+      <c r="A48" s="28"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="32"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="14"/>
+      <c r="A49" s="29"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="32"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="14"/>
+      <c r="A50" s="29"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="32"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="14"/>
+      <c r="A51" s="29"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="32"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="14"/>
+      <c r="A52" s="29"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="32"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="14"/>
+      <c r="A53" s="29"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="32"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="14"/>
+      <c r="A54" s="29"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="33"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="21"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C16">
@@ -4567,57 +3499,1283 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="34" customWidth="1"/>
+    <col min="7" max="8" width="14.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.26953125" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" style="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="46">
+        <v>675</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="46">
+        <v>675</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="46">
+        <v>675</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="46">
+        <v>50</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="46">
+        <v>50</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="46">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="46">
+        <v>282.06999999999988</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="46">
+        <v>40.25</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="46">
+        <v>193.68</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="46">
+        <v>92.359999999999985</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="46">
+        <v>7.69</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="46">
+        <v>97.7</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="43">
+        <f t="shared" ref="M8:M15" si="0">SUM(C5,F5,I5,C17,F17,I17,C29,F29,I29,C41,F41,I41)</f>
+        <v>3375</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="43">
+        <f t="shared" ref="P8:P15" si="1">AVERAGE(C5,F5,I5,C17,F17,I17,C29,F29,I29,C41,F41,I41)</f>
+        <v>675</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>2700</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="46">
+        <v>13.63</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="43">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="43">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>200</v>
+      </c>
+      <c r="V9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="46">
+        <v>49.88</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="46">
+        <v>15.6</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="46">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="43">
+        <f t="shared" si="0"/>
+        <v>545.01999999999987</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="43">
+        <f t="shared" si="1"/>
+        <v>109.00399999999998</v>
+      </c>
+      <c r="S10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10">
+        <v>1132.54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10">
+        <v>283.13499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="46">
+        <v>143.19</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="46">
+        <v>37</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="46">
+        <v>60</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="43">
+        <f t="shared" si="0"/>
+        <v>211.44</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="43">
+        <f t="shared" si="1"/>
+        <v>42.287999999999997</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11">
+        <v>425.75</v>
+      </c>
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11">
+        <v>106.4375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="46">
+        <v>197.58</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="46">
+        <v>25</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="43">
+        <f t="shared" si="0"/>
+        <v>17.630000000000003</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="43">
+        <f t="shared" si="1"/>
+        <v>3.5260000000000007</v>
+      </c>
+      <c r="S12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12">
+        <v>112.38</v>
+      </c>
+      <c r="V12" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12">
+        <v>28.094999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="L13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="43">
+        <f t="shared" si="0"/>
+        <v>10116.879999999999</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="43">
+        <f t="shared" si="1"/>
+        <v>2023.3759999999997</v>
+      </c>
+      <c r="S13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <v>45.12</v>
+      </c>
+      <c r="V13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W13">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="L14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="43">
+        <f t="shared" si="0"/>
+        <v>277.19</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="43">
+        <f t="shared" si="1"/>
+        <v>55.438000000000002</v>
+      </c>
+      <c r="S14" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>141.86000000000001</v>
+      </c>
+      <c r="V14" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>35.465000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="44">
+        <f t="shared" si="0"/>
+        <v>222.58</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="44">
+        <f t="shared" si="1"/>
+        <v>44.516000000000005</v>
+      </c>
+      <c r="S15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15">
+        <v>210.89</v>
+      </c>
+      <c r="V15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15">
+        <v>52.722499999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="46">
+        <v>675</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="46">
+        <v>675</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="40">
+        <f>SUM(M8:M15)</f>
+        <v>15015.739999999998</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="42">
+        <f>AVERAGE(M23:M34)</f>
+        <v>3114.41</v>
+      </c>
+      <c r="S17" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17">
+        <v>4968.54</v>
+      </c>
+      <c r="V17" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17">
+        <v>993.70799999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="46">
+        <v>50</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="46">
+        <v>50</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="46"/>
+      <c r="P18" s="42">
+        <f>SUM(P8:P15)</f>
+        <v>3003.1479999999997</v>
+      </c>
+      <c r="W18">
+        <v>1242.135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="46">
+        <v>27.02</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="46">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="46">
+        <v>7.69</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="46">
+        <v>6</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B21" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="46">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="46">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="46">
+        <v>15.6</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="46">
+        <v>10003</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="46"/>
+      <c r="L22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" t="s">
+        <v>14</v>
+      </c>
+      <c r="V22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="46">
+        <v>37</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="46">
+        <v>0</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="46"/>
+      <c r="L23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="47">
+        <v>1490.08</v>
+      </c>
+      <c r="N23" s="47">
+        <v>765.07999999999993</v>
+      </c>
+      <c r="O23" s="48">
+        <v>-365.07999999999993</v>
+      </c>
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="46">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="46">
+        <v>0</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="46"/>
+      <c r="L24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="42">
+        <v>1381.85</v>
+      </c>
+      <c r="N24" s="40">
+        <v>656.85</v>
+      </c>
+      <c r="O24" s="43">
+        <v>-231.85</v>
+      </c>
+      <c r="S24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B25" s="31"/>
+      <c r="L25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="42">
+        <v>1147.81</v>
+      </c>
+      <c r="N25" s="40">
+        <v>422.81</v>
+      </c>
+      <c r="O25" s="43">
+        <v>2.1899999999999982</v>
+      </c>
+      <c r="S25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="L26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="42">
+        <v>812.31000000000006</v>
+      </c>
+      <c r="N26" s="40">
+        <v>87.31</v>
+      </c>
+      <c r="O26" s="43">
+        <v>337.69</v>
+      </c>
+      <c r="S26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="42">
+        <v>10740</v>
+      </c>
+      <c r="N27" s="40">
+        <v>10015</v>
+      </c>
+      <c r="O27" s="43">
+        <v>-9590</v>
+      </c>
+      <c r="S27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="43"/>
+      <c r="S28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="E29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="46"/>
+      <c r="H29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="L29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="43"/>
+      <c r="S29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="E30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="46"/>
+      <c r="H30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="46"/>
+      <c r="L30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="43"/>
+      <c r="S30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="E31" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="46"/>
+      <c r="H31" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="46"/>
+      <c r="L31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="43"/>
+      <c r="S31" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31">
+        <v>1205.8900000000001</v>
+      </c>
+      <c r="U31">
+        <v>480.89</v>
+      </c>
+      <c r="V31">
+        <v>-5.89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="E32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="46"/>
+      <c r="H32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="46"/>
+      <c r="L32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="43"/>
+      <c r="S32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32">
+        <v>1293.23</v>
+      </c>
+      <c r="U32">
+        <v>568.23</v>
+      </c>
+      <c r="V32">
+        <v>-93.230000000000018</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="E33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="H33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="46"/>
+      <c r="L33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="43"/>
+      <c r="S33" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33">
+        <v>1183.3499999999999</v>
+      </c>
+      <c r="U33">
+        <v>458.35</v>
+      </c>
+      <c r="V33">
+        <v>16.650000000000031</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="E34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="H34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="46"/>
+      <c r="L34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="44"/>
+      <c r="S34" t="s">
+        <v>42</v>
+      </c>
+      <c r="T34">
+        <v>1286.07</v>
+      </c>
+      <c r="U34">
+        <v>561.07000000000005</v>
+      </c>
+      <c r="V34">
+        <v>-86.07000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="E35" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="H35" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="46"/>
+      <c r="N35" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="42">
+        <f>SUM(O23:O34)</f>
+        <v>-9847.0499999999993</v>
+      </c>
+      <c r="U35" t="s">
+        <v>56</v>
+      </c>
+      <c r="V35">
+        <v>-168.54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B36" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="E36" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="H36" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="46"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C37" s="40"/>
+    </row>
+    <row r="39" spans="2:22" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B40" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B41" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="E41" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="H41" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="46"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B42" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="E42" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="H42" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="46"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B43" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="E43" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="H43" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="46"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B44" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="E44" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="H44" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="46"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B45" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="E45" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="46"/>
+      <c r="H45" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="46"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B46" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="E46" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="46"/>
+      <c r="H46" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="46"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B47" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="E47" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="46"/>
+      <c r="H47" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="46"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B48" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="E48" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="46"/>
+      <c r="H48" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="46"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C49" s="40"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H79" s="33"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H80" s="33"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H81" s="33"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H82" s="33"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H83" s="33"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H84" s="33"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H85" s="33"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H86" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView topLeftCell="C63" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67:I72"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E71" sqref="E67:I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="7.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="14" style="10" customWidth="1"/>
-    <col min="16" max="16" width="5.81640625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="6.54296875" style="10" customWidth="1"/>
-    <col min="18" max="18" width="7.453125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="10.7265625" style="10" customWidth="1"/>
-    <col min="20" max="20" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" style="34" customWidth="1"/>
+    <col min="15" max="15" width="14" style="34" customWidth="1"/>
+    <col min="16" max="16" width="5.81640625" style="34" customWidth="1"/>
+    <col min="17" max="17" width="6.54296875" style="34" customWidth="1"/>
+    <col min="18" max="18" width="7.453125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="10.7265625" style="34" customWidth="1"/>
+    <col min="20" max="20" width="15" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" style="34" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.81640625" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -4629,22 +4787,22 @@
         <v>43833</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="37">
+        <v>61</v>
+      </c>
+      <c r="H4" s="40">
         <v>12.05</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -4656,19 +4814,19 @@
         <v>43834</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="37">
+        <v>65</v>
+      </c>
+      <c r="H5" s="40">
         <v>7.5</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O5">
         <v>38</v>
@@ -4683,19 +4841,19 @@
         <v>43834</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="37">
+        <v>61</v>
+      </c>
+      <c r="H6" s="40">
         <v>17.079999999999998</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O6">
         <v>89.48</v>
@@ -4710,19 +4868,19 @@
         <v>43836</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="37">
+        <v>61</v>
+      </c>
+      <c r="H7" s="40">
         <v>8.83</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O7">
         <v>24.98</v>
@@ -4737,19 +4895,19 @@
         <v>43837</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="37">
+        <v>72</v>
+      </c>
+      <c r="H8" s="40">
         <v>100.63</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O8">
         <v>23.59</v>
@@ -4764,19 +4922,19 @@
         <v>43838</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="37">
+        <v>75</v>
+      </c>
+      <c r="H9" s="40">
         <v>1.5</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O9">
         <v>176.05</v>
@@ -4791,16 +4949,16 @@
         <v>43838</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="37">
+        <v>78</v>
+      </c>
+      <c r="H10" s="40">
         <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -4812,16 +4970,16 @@
         <v>43839</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="37">
+        <v>80</v>
+      </c>
+      <c r="H11" s="40">
         <v>29.82</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -4833,16 +4991,16 @@
         <v>43841</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="37">
+        <v>61</v>
+      </c>
+      <c r="H12" s="40">
         <v>15.83</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -4854,16 +5012,16 @@
         <v>43842</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="37">
+        <v>78</v>
+      </c>
+      <c r="H13" s="40">
         <v>29.95</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -4875,16 +5033,16 @@
         <v>43842</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="37">
+        <v>78</v>
+      </c>
+      <c r="H14" s="40">
         <v>79.95</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -4896,16 +5054,16 @@
         <v>43845</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="37">
+        <v>84</v>
+      </c>
+      <c r="H15" s="40">
         <v>106.26</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -4917,16 +5075,16 @@
         <v>43845</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="37">
+        <v>86</v>
+      </c>
+      <c r="H16" s="40">
         <v>31.88</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
@@ -4938,16 +5096,16 @@
         <v>43846</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="37">
+        <v>80</v>
+      </c>
+      <c r="H17" s="40">
         <v>1.41</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
@@ -4959,16 +5117,16 @@
         <v>43850</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="37">
+        <v>88</v>
+      </c>
+      <c r="H18" s="40">
         <v>53.87</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
@@ -4980,16 +5138,16 @@
         <v>43852</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="37">
+        <v>90</v>
+      </c>
+      <c r="H19" s="40">
         <v>7.45</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
@@ -4997,20 +5155,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="28">
         <v>43852</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="37">
+        <v>92</v>
+      </c>
+      <c r="H20" s="40">
         <v>17.62</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
@@ -5018,20 +5176,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="28">
         <v>43853</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="37">
+        <v>94</v>
+      </c>
+      <c r="H21" s="40">
         <v>18.809999999999999</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
@@ -5039,20 +5197,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="28">
         <v>43856</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="37">
+        <v>61</v>
+      </c>
+      <c r="H22" s="40">
         <v>6.83</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
@@ -5060,20 +5218,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="28">
         <v>43858</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="37">
+        <v>95</v>
+      </c>
+      <c r="H23" s="40">
         <v>86.91</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
@@ -5081,20 +5239,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="28">
         <v>43859</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="37">
+        <v>90</v>
+      </c>
+      <c r="H24" s="40">
         <v>8.19</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
@@ -5102,20 +5260,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="28">
         <v>43860</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="37">
+        <v>88</v>
+      </c>
+      <c r="H25" s="40">
         <v>13.02</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
@@ -5123,20 +5281,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="28">
         <v>43861</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="37">
+        <v>98</v>
+      </c>
+      <c r="H26" s="40">
         <v>33.69</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
@@ -5144,20 +5302,20 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="28">
         <v>43861</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="37">
+        <v>61</v>
+      </c>
+      <c r="H27" s="40">
         <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
@@ -5169,16 +5327,16 @@
         <v>43862</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="37">
+        <v>100</v>
+      </c>
+      <c r="H28" s="40">
         <v>70</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
@@ -5190,16 +5348,16 @@
         <v>43865</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="37">
+        <v>78</v>
+      </c>
+      <c r="H29" s="40">
         <v>11.98</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
@@ -5211,16 +5369,16 @@
         <v>43865</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="37">
+        <v>78</v>
+      </c>
+      <c r="H30" s="40">
         <v>17.95</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
@@ -5232,16 +5390,16 @@
         <v>43865</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="37">
+        <v>80</v>
+      </c>
+      <c r="H31" s="40">
         <v>46.39</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
@@ -5253,16 +5411,16 @@
         <v>43865</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="37">
+        <v>104</v>
+      </c>
+      <c r="H32" s="40">
         <v>19.16</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
@@ -5274,16 +5432,16 @@
         <v>43869</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="37">
+        <v>106</v>
+      </c>
+      <c r="H33" s="40">
         <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
@@ -5295,16 +5453,16 @@
         <v>43870</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="37">
+        <v>108</v>
+      </c>
+      <c r="H34" s="40">
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
@@ -5316,16 +5474,16 @@
         <v>43870</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="37">
+        <v>109</v>
+      </c>
+      <c r="H35" s="40">
         <v>15.29</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
@@ -5337,16 +5495,16 @@
         <v>43872</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" s="37">
+        <v>80</v>
+      </c>
+      <c r="H36" s="40">
         <v>70.03</v>
       </c>
       <c r="I36" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
@@ -5358,16 +5516,16 @@
         <v>43873</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="37">
+        <v>111</v>
+      </c>
+      <c r="H37" s="40">
         <v>73</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
@@ -5379,16 +5537,16 @@
         <v>43874</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="37">
+        <v>113</v>
+      </c>
+      <c r="H38" s="40">
         <v>21.39</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
@@ -5400,16 +5558,16 @@
         <v>43875</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H39" s="37">
+        <v>115</v>
+      </c>
+      <c r="H39" s="40">
         <v>24.24</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
@@ -5421,16 +5579,16 @@
         <v>43876</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" s="37">
+        <v>117</v>
+      </c>
+      <c r="H40" s="40">
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.35">
@@ -5442,16 +5600,16 @@
         <v>43878</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="37">
+        <v>61</v>
+      </c>
+      <c r="H41" s="40">
         <v>17.38</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.35">
@@ -5463,16 +5621,16 @@
         <v>43878</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
-      </c>
-      <c r="H42" s="37">
+        <v>88</v>
+      </c>
+      <c r="H42" s="40">
         <v>19.54</v>
       </c>
       <c r="I42" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.35">
@@ -5484,16 +5642,16 @@
         <v>43881</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="37">
+        <v>80</v>
+      </c>
+      <c r="H43" s="40">
         <v>24.78</v>
       </c>
       <c r="I43" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.35">
@@ -5501,20 +5659,20 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="28">
         <v>43883</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
-      </c>
-      <c r="H44" s="37">
+        <v>61</v>
+      </c>
+      <c r="H44" s="40">
         <v>20.100000000000001</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.35">
@@ -5522,20 +5680,20 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="28">
         <v>43883</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G45" t="s">
-        <v>117</v>
-      </c>
-      <c r="H45" s="37">
+        <v>119</v>
+      </c>
+      <c r="H45" s="40">
         <v>15.15</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.35">
@@ -5543,20 +5701,20 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="28">
         <v>43884</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" s="37">
+        <v>121</v>
+      </c>
+      <c r="H46" s="40">
         <v>13.28</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.35">
@@ -5564,20 +5722,20 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="28">
         <v>43884</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="37">
+        <v>123</v>
+      </c>
+      <c r="H47" s="40">
         <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.35">
@@ -5585,20 +5743,20 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="28">
         <v>43886</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="37">
+        <v>80</v>
+      </c>
+      <c r="H48" s="40">
         <v>59.19</v>
       </c>
       <c r="I48" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.35">
@@ -5606,20 +5764,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="41">
         <v>43893</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="37">
+        <v>72</v>
+      </c>
+      <c r="H49" s="42">
         <v>53.37</v>
       </c>
       <c r="I49" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.35">
@@ -5627,20 +5785,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="41">
         <v>43896</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G50" t="s">
-        <v>123</v>
-      </c>
-      <c r="H50" s="37">
+        <v>125</v>
+      </c>
+      <c r="H50" s="42">
         <v>9.8000000000000007</v>
       </c>
       <c r="I50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.35">
@@ -5648,20 +5806,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="41">
         <v>43896</v>
       </c>
       <c r="F51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G51" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="37">
+        <v>127</v>
+      </c>
+      <c r="H51" s="42">
         <v>29.9</v>
       </c>
       <c r="I51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.35">
@@ -5669,20 +5827,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="41">
         <v>43897</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
-      </c>
-      <c r="H52" s="37">
+        <v>61</v>
+      </c>
+      <c r="H52" s="42">
         <v>14.8</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.35">
@@ -5690,20 +5848,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="41">
         <v>43898</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H53" s="37">
+        <v>61</v>
+      </c>
+      <c r="H53" s="42">
         <v>5.64</v>
       </c>
       <c r="I53" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.35">
@@ -5711,20 +5869,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="41">
         <v>43901</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G54" t="s">
-        <v>128</v>
-      </c>
-      <c r="H54" s="37">
+        <v>130</v>
+      </c>
+      <c r="H54" s="42">
         <v>16.829999999999998</v>
       </c>
       <c r="I54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.35">
@@ -5732,20 +5890,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="41">
         <v>43901</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G55" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="37">
+        <v>80</v>
+      </c>
+      <c r="H55" s="42">
         <v>30</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.35">
@@ -5753,20 +5911,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="41">
         <v>43902</v>
       </c>
       <c r="F56" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G56" t="s">
-        <v>130</v>
-      </c>
-      <c r="H56" s="37">
+        <v>132</v>
+      </c>
+      <c r="H56" s="42">
         <v>21.67</v>
       </c>
       <c r="I56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.35">
@@ -5774,20 +5932,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="41">
         <v>43902</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>59</v>
-      </c>
-      <c r="H57" s="37">
+        <v>61</v>
+      </c>
+      <c r="H57" s="42">
         <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.35">
@@ -5795,20 +5953,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="41">
         <v>43903</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
-      </c>
-      <c r="H58" s="37">
+        <v>134</v>
+      </c>
+      <c r="H58" s="42">
         <v>9.6300000000000008</v>
       </c>
       <c r="I58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.35">
@@ -5816,20 +5974,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="41">
         <v>43903</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H59" s="37">
+        <v>135</v>
+      </c>
+      <c r="H59" s="42">
         <v>73.94</v>
       </c>
       <c r="I59" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.35">
@@ -5837,20 +5995,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="41">
         <v>43904</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
-      </c>
-      <c r="H60" s="37">
+        <v>137</v>
+      </c>
+      <c r="H60" s="42">
         <v>4.5</v>
       </c>
       <c r="I60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.35">
@@ -5858,20 +6016,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="41">
         <v>43907</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
-      </c>
-      <c r="H61" s="37">
+        <v>80</v>
+      </c>
+      <c r="H61" s="42">
         <v>60.73</v>
       </c>
       <c r="I61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.35">
@@ -5879,20 +6037,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="41">
         <v>43907</v>
       </c>
       <c r="F62" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G62" t="s">
-        <v>137</v>
-      </c>
-      <c r="H62" s="37">
+        <v>139</v>
+      </c>
+      <c r="H62" s="42">
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.35">
@@ -5900,20 +6058,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="41">
         <v>43910</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
-      </c>
-      <c r="H63" s="37">
+        <v>108</v>
+      </c>
+      <c r="H63" s="42">
         <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.35">
@@ -5921,20 +6079,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="41">
         <v>43910</v>
       </c>
       <c r="F64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
-      </c>
-      <c r="H64" s="37">
+        <v>141</v>
+      </c>
+      <c r="H64" s="42">
         <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.35">
@@ -5942,20 +6100,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="41">
         <v>43914</v>
       </c>
       <c r="F65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G65" t="s">
-        <v>141</v>
-      </c>
-      <c r="H65" s="37">
+        <v>143</v>
+      </c>
+      <c r="H65" s="42">
         <v>30</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.35">
@@ -5963,20 +6121,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="41">
         <v>43914</v>
       </c>
       <c r="F66" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>141</v>
-      </c>
-      <c r="H66" s="37">
+        <v>143</v>
+      </c>
+      <c r="H66" s="42">
         <v>8</v>
       </c>
       <c r="I66" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.35">
@@ -5984,20 +6142,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E67" s="45">
-        <v>43932</v>
+      <c r="E67" s="41">
+        <v>43939</v>
       </c>
       <c r="F67" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" s="46">
-        <v>13.23</v>
+        <v>145</v>
+      </c>
+      <c r="H67" s="42">
+        <v>15.6</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.35">
@@ -6005,20 +6163,20 @@
         <f t="shared" ref="D68:D99" si="2">MONTH(E68)</f>
         <v>4</v>
       </c>
-      <c r="E68" s="45">
-        <v>43939</v>
+      <c r="E68" s="41">
+        <v>43947</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="G68" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" s="46">
-        <v>15.6</v>
+        <v>135</v>
+      </c>
+      <c r="H68" s="42">
+        <v>27.02</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.35">
@@ -6026,17 +6184,17 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E69" s="45">
+      <c r="E69" s="41">
         <v>43947</v>
       </c>
       <c r="F69" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G69" t="s">
-        <v>133</v>
-      </c>
-      <c r="H69" s="46">
-        <v>27.02</v>
+        <v>78</v>
+      </c>
+      <c r="H69" s="42">
+        <v>15</v>
       </c>
       <c r="I69" t="s">
         <v>11</v>
@@ -6047,20 +6205,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E70" s="45">
-        <v>43947</v>
+      <c r="E70" s="41">
+        <v>43948</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G70" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" s="46">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="H70" s="42">
+        <v>7.69</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.35">
@@ -6068,81 +6226,187 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E71" s="45">
-        <v>43948</v>
+      <c r="E71" s="41">
+        <v>43950</v>
       </c>
       <c r="F71" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G71" t="s">
-        <v>59</v>
-      </c>
-      <c r="H71" s="46">
-        <v>7.69</v>
+        <v>150</v>
+      </c>
+      <c r="H71" s="42">
+        <v>22</v>
       </c>
       <c r="I71" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D72">
         <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E72" s="41">
+        <v>43965</v>
+      </c>
+      <c r="F72" t="s">
+        <v>151</v>
+      </c>
+      <c r="G72" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="42">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E73" s="41">
+        <v>43965</v>
+      </c>
+      <c r="F73" t="s">
+        <v>153</v>
+      </c>
+      <c r="G73" t="s">
+        <v>154</v>
+      </c>
+      <c r="H73" s="42">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E74" s="41">
+        <v>43965</v>
+      </c>
+      <c r="F74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" t="s">
+        <v>156</v>
+      </c>
+      <c r="H74" s="42">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E75" s="41">
+        <v>43965</v>
+      </c>
+      <c r="F75" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" t="s">
+        <v>156</v>
+      </c>
+      <c r="H75" s="42">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E76" s="41">
+        <v>43965</v>
+      </c>
+      <c r="F76" t="s">
+        <v>157</v>
+      </c>
+      <c r="G76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H76" s="42">
         <v>4</v>
       </c>
-      <c r="E72" s="45">
-        <v>43950</v>
-      </c>
-      <c r="F72" t="s">
-        <v>148</v>
-      </c>
-      <c r="G72" t="s">
-        <v>149</v>
-      </c>
-      <c r="H72" s="46">
-        <v>22</v>
-      </c>
-      <c r="I72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E73" s="43"/>
+      <c r="I76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E77" s="41">
+        <v>43965</v>
+      </c>
+      <c r="F77" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77" t="s">
+        <v>159</v>
+      </c>
+      <c r="H77" s="42">
+        <v>10000</v>
+      </c>
+      <c r="I77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E78" s="41"/>
+      <c r="H78" s="42"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E79" s="47"/>
+      <c r="E79" s="50"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="E80" s="47"/>
+      <c r="E80" s="50"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E81" s="47"/>
+      <c r="E81" s="50"/>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E82" s="47"/>
+      <c r="E82" s="50"/>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E83" s="47"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E84" s="47"/>
+      <c r="E84" s="50"/>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E85" s="47"/>
+      <c r="E85" s="50"/>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E86" s="47"/>
+      <c r="E86" s="50"/>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E87" s="47"/>
+      <c r="E87" s="50"/>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E88" s="47"/>
+      <c r="E88" s="50"/>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E89" s="47"/>
+      <c r="E89" s="50"/>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E90" s="47"/>
+      <c r="E90" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="D3:I27">
